--- a/Assets/AIPrefs/AIInvestments.xlsx
+++ b/Assets/AIPrefs/AIInvestments.xlsx
@@ -398,7 +398,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -451,16 +451,16 @@
         <v>6</v>
       </c>
       <c r="B3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -485,16 +485,16 @@
         <v>8</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:5">

--- a/Assets/AIPrefs/AIInvestments.xlsx
+++ b/Assets/AIPrefs/AIInvestments.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="60" windowWidth="23895" windowHeight="12270"/>
+    <workbookView xWindow="120" yWindow="60" windowWidth="21840" windowHeight="12270"/>
   </bookViews>
   <sheets>
     <sheet name="InvTruman" sheetId="1" r:id="rId1"/>
@@ -57,7 +57,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -69,11 +69,16 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="2">
@@ -398,7 +403,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -437,7 +442,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -451,16 +456,16 @@
         <v>6</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -468,10 +473,10 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -485,16 +490,16 @@
         <v>8</v>
       </c>
       <c r="B5">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="C5">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="D5">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -502,19 +507,20 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
@@ -525,7 +531,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -556,10 +562,10 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -573,10 +579,10 @@
         <v>6</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -590,10 +596,10 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -607,10 +613,10 @@
         <v>8</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -624,19 +630,20 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>87</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
@@ -647,7 +654,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -678,10 +685,10 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -695,10 +702,10 @@
         <v>6</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -712,10 +719,10 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -729,10 +736,10 @@
         <v>8</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -746,19 +753,20 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -768,7 +776,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -799,10 +807,10 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -816,10 +824,10 @@
         <v>6</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -833,10 +841,10 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -850,10 +858,10 @@
         <v>8</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -867,19 +875,20 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>87</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -889,7 +898,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -928,7 +937,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -942,16 +951,16 @@
         <v>6</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -959,10 +968,10 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -976,10 +985,10 @@
         <v>8</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -993,19 +1002,20 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1015,7 +1025,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1051,10 +1061,10 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -1068,10 +1078,10 @@
         <v>6</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -1085,10 +1095,10 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -1102,10 +1112,10 @@
         <v>8</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -1119,19 +1129,20 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>87</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1141,7 +1152,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1177,10 +1188,10 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -1194,10 +1205,10 @@
         <v>6</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -1211,10 +1222,10 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -1228,10 +1239,10 @@
         <v>8</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -1245,19 +1256,20 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1267,7 +1279,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1303,10 +1315,10 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -1320,10 +1332,10 @@
         <v>6</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -1337,10 +1349,10 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -1354,10 +1366,10 @@
         <v>8</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -1371,19 +1383,20 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>87</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Assets/AIPrefs/AIInvestments.xlsx
+++ b/Assets/AIPrefs/AIInvestments.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="60" windowWidth="21840" windowHeight="12270"/>
+    <workbookView xWindow="120" yWindow="60" windowWidth="21840" windowHeight="12270" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="InvTruman" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="11">
   <si>
     <t>InvestWarPlus</t>
   </si>
@@ -51,6 +51,9 @@
   </si>
   <si>
     <t>no</t>
+  </si>
+  <si>
+    <t>addBudgetGrowth</t>
   </si>
 </sst>
 </file>
@@ -400,10 +403,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -513,10 +516,27 @@
         <v>80</v>
       </c>
       <c r="D6">
-        <v>98</v>
+        <v>8</v>
       </c>
       <c r="E6">
-        <v>98</v>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>90</v>
+      </c>
+      <c r="E7">
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -528,10 +548,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -636,9 +656,26 @@
         <v>87</v>
       </c>
       <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
         <v>100</v>
       </c>
-      <c r="E6">
+      <c r="E7">
         <v>100</v>
       </c>
     </row>
@@ -651,10 +688,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -759,9 +796,26 @@
         <v>88</v>
       </c>
       <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
         <v>100</v>
       </c>
-      <c r="E6">
+      <c r="E7">
         <v>100</v>
       </c>
     </row>
@@ -773,10 +827,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -881,9 +935,26 @@
         <v>88</v>
       </c>
       <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
         <v>100</v>
       </c>
-      <c r="E6">
+      <c r="E7">
         <v>100</v>
       </c>
     </row>
@@ -895,10 +966,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1008,10 +1079,27 @@
         <v>80</v>
       </c>
       <c r="D6">
-        <v>98</v>
+        <v>8</v>
       </c>
       <c r="E6">
-        <v>98</v>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>90</v>
+      </c>
+      <c r="E7">
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -1022,10 +1110,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1135,9 +1223,26 @@
         <v>87</v>
       </c>
       <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
         <v>100</v>
       </c>
-      <c r="E6">
+      <c r="E7">
         <v>100</v>
       </c>
     </row>
@@ -1149,10 +1254,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1262,9 +1367,26 @@
         <v>88</v>
       </c>
       <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
         <v>100</v>
       </c>
-      <c r="E6">
+      <c r="E7">
         <v>100</v>
       </c>
     </row>
@@ -1276,10 +1398,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1389,9 +1511,26 @@
         <v>88</v>
       </c>
       <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
         <v>100</v>
       </c>
-      <c r="E6">
+      <c r="E7">
         <v>100</v>
       </c>
     </row>

--- a/Assets/AIPrefs/AIInvestments.xlsx
+++ b/Assets/AIPrefs/AIInvestments.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="60" windowWidth="21840" windowHeight="12270" activeTab="7"/>
+    <workbookView xWindow="120" yWindow="60" windowWidth="21840" windowHeight="12270"/>
   </bookViews>
   <sheets>
     <sheet name="InvTruman" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
     <sheet name="InvBrezhnev" sheetId="7" r:id="rId7"/>
     <sheet name="InvGorbachev" sheetId="8" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="114210"/>
 </workbook>
 </file>
 
@@ -111,7 +111,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -119,9 +119,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -159,7 +159,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -229,7 +229,7 @@
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -405,8 +405,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -445,7 +445,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -459,16 +459,16 @@
         <v>6</v>
       </c>
       <c r="B3">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="C3">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="D3">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -476,10 +476,10 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C4">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -493,10 +493,10 @@
         <v>8</v>
       </c>
       <c r="B5">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="C5">
-        <v>5</v>
+        <v>45</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -510,16 +510,16 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <v>84</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -527,16 +527,16 @@
         <v>10</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D7">
         <v>90</v>
       </c>
       <c r="E7">
-        <v>90</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -551,7 +551,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD7"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -582,10 +582,10 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -599,13 +599,13 @@
         <v>6</v>
       </c>
       <c r="B3">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -616,10 +616,10 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C4">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -633,10 +633,10 @@
         <v>8</v>
       </c>
       <c r="B5">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="C5">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -650,10 +650,10 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>87</v>
+        <v>0</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -667,13 +667,13 @@
         <v>10</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="D7">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="E7">
         <v>100</v>
@@ -691,7 +691,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -722,10 +722,10 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C2">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -739,13 +739,13 @@
         <v>6</v>
       </c>
       <c r="B3">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -756,10 +756,10 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C4">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -773,10 +773,10 @@
         <v>8</v>
       </c>
       <c r="B5">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="C5">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -790,10 +790,10 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <v>88</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>88</v>
+        <v>0</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -807,13 +807,13 @@
         <v>10</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="D7">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="E7">
         <v>100</v>
@@ -830,7 +830,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -861,10 +861,10 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="C2">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -878,10 +878,10 @@
         <v>6</v>
       </c>
       <c r="B3">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -895,10 +895,10 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="C4">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -912,10 +912,10 @@
         <v>8</v>
       </c>
       <c r="B5">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -929,10 +929,10 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <v>87</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>88</v>
+        <v>0</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -946,10 +946,10 @@
         <v>10</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D7">
         <v>100</v>
@@ -969,7 +969,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1008,7 +1008,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -1022,16 +1022,16 @@
         <v>6</v>
       </c>
       <c r="B3">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="C3">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="D3">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1039,10 +1039,10 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C4">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -1056,10 +1056,10 @@
         <v>8</v>
       </c>
       <c r="B5">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="C5">
-        <v>5</v>
+        <v>45</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -1073,16 +1073,16 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <v>84</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1090,16 +1090,16 @@
         <v>10</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D7">
         <v>90</v>
       </c>
       <c r="E7">
-        <v>90</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -1113,7 +1113,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1149,10 +1149,10 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -1166,13 +1166,13 @@
         <v>6</v>
       </c>
       <c r="B3">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -1183,10 +1183,10 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C4">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -1200,10 +1200,10 @@
         <v>8</v>
       </c>
       <c r="B5">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="C5">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -1217,10 +1217,10 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>87</v>
+        <v>0</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -1234,13 +1234,13 @@
         <v>10</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="D7">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="E7">
         <v>100</v>
@@ -1257,7 +1257,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1293,10 +1293,10 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C2">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -1310,13 +1310,13 @@
         <v>6</v>
       </c>
       <c r="B3">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -1327,10 +1327,10 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C4">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -1344,10 +1344,10 @@
         <v>8</v>
       </c>
       <c r="B5">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="C5">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -1361,10 +1361,10 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <v>88</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>88</v>
+        <v>0</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -1378,13 +1378,13 @@
         <v>10</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="D7">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="E7">
         <v>100</v>
@@ -1400,8 +1400,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1437,10 +1437,10 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="C2">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -1454,10 +1454,10 @@
         <v>6</v>
       </c>
       <c r="B3">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -1471,10 +1471,10 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="C4">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -1488,10 +1488,10 @@
         <v>8</v>
       </c>
       <c r="B5">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -1505,10 +1505,10 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <v>87</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>88</v>
+        <v>0</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -1522,10 +1522,10 @@
         <v>10</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D7">
         <v>100</v>

--- a/Assets/AIPrefs/AIInvestments.xlsx
+++ b/Assets/AIPrefs/AIInvestments.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="60" windowWidth="21840" windowHeight="12270"/>
+    <workbookView xWindow="120" yWindow="60" windowWidth="21840" windowHeight="12270" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="InvTruman" sheetId="1" r:id="rId1"/>
@@ -405,7 +405,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
@@ -442,10 +442,10 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -462,7 +462,7 @@
         <v>40</v>
       </c>
       <c r="C3">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D3">
         <v>10</v>
@@ -476,10 +476,10 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C4">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -493,10 +493,10 @@
         <v>8</v>
       </c>
       <c r="B5">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C5">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -527,10 +527,10 @@
         <v>10</v>
       </c>
       <c r="B7">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C7">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D7">
         <v>90</v>
@@ -582,10 +582,10 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -599,13 +599,13 @@
         <v>6</v>
       </c>
       <c r="B3">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C3">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D3">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -616,10 +616,10 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C4">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -633,7 +633,7 @@
         <v>8</v>
       </c>
       <c r="B5">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C5">
         <v>40</v>
@@ -670,10 +670,10 @@
         <v>20</v>
       </c>
       <c r="C7">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D7">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="E7">
         <v>100</v>
@@ -722,10 +722,10 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C2">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -739,13 +739,13 @@
         <v>6</v>
       </c>
       <c r="B3">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C3">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="D3">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -756,10 +756,10 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C4">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -773,10 +773,10 @@
         <v>8</v>
       </c>
       <c r="B5">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C5">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -810,10 +810,10 @@
         <v>20</v>
       </c>
       <c r="C7">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D7">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="E7">
         <v>100</v>
@@ -829,7 +829,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
@@ -861,10 +861,10 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="C2">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -878,10 +878,10 @@
         <v>6</v>
       </c>
       <c r="B3">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C3">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -895,10 +895,10 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="C4">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -912,10 +912,10 @@
         <v>8</v>
       </c>
       <c r="B5">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="C5">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -946,10 +946,10 @@
         <v>10</v>
       </c>
       <c r="B7">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C7">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D7">
         <v>100</v>
@@ -1005,10 +1005,10 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -1025,7 +1025,7 @@
         <v>40</v>
       </c>
       <c r="C3">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D3">
         <v>10</v>
@@ -1039,10 +1039,10 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C4">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -1056,10 +1056,10 @@
         <v>8</v>
       </c>
       <c r="B5">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C5">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -1090,10 +1090,10 @@
         <v>10</v>
       </c>
       <c r="B7">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C7">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D7">
         <v>90</v>
@@ -1149,10 +1149,10 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -1166,13 +1166,13 @@
         <v>6</v>
       </c>
       <c r="B3">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C3">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D3">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -1183,10 +1183,10 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C4">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -1200,7 +1200,7 @@
         <v>8</v>
       </c>
       <c r="B5">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C5">
         <v>40</v>
@@ -1237,10 +1237,10 @@
         <v>20</v>
       </c>
       <c r="C7">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D7">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="E7">
         <v>100</v>
@@ -1293,10 +1293,10 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C2">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -1310,13 +1310,13 @@
         <v>6</v>
       </c>
       <c r="B3">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C3">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="D3">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -1327,10 +1327,10 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C4">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -1344,10 +1344,10 @@
         <v>8</v>
       </c>
       <c r="B5">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C5">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -1381,10 +1381,10 @@
         <v>20</v>
       </c>
       <c r="C7">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D7">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="E7">
         <v>100</v>
@@ -1437,10 +1437,10 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="C2">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -1454,10 +1454,10 @@
         <v>6</v>
       </c>
       <c r="B3">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C3">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -1471,10 +1471,10 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="C4">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -1488,10 +1488,10 @@
         <v>8</v>
       </c>
       <c r="B5">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="C5">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -1522,10 +1522,10 @@
         <v>10</v>
       </c>
       <c r="B7">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C7">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D7">
         <v>100</v>
